--- a/info.xlsx
+++ b/info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\analyse_loi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2411,16 +2411,16 @@
     <t>num de voiture</t>
   </si>
   <si>
-    <t>ali</t>
-  </si>
-  <si>
-    <t>saleh</t>
-  </si>
-  <si>
-    <t>brahim</t>
-  </si>
-  <si>
-    <t>sami</t>
+    <t>SAMIR</t>
+  </si>
+  <si>
+    <t>ADEL</t>
+  </si>
+  <si>
+    <t>FATHI</t>
+  </si>
+  <si>
+    <t>SAIID</t>
   </si>
 </sst>
 </file>
@@ -2780,7 +2780,7 @@
   <dimension ref="A2:G447"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
